--- a/الجدول_الاسبوعي_السابع.xlsx
+++ b/الجدول_الاسبوعي_السابع.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ad2500ab36ff184/المستندات/MicrosoftOfficeSaves/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ad2500ab36ff184/المستندات/University-Assignments/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="50" documentId="8_{ACC08F33-0533-464A-A72B-1870AC39E76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41F1F37B-B88D-4646-95AD-9F99587917A7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{65B6F90D-BF3F-4B29-BD15-59A057781834}"/>
+    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="11175" xr2:uid="{65B6F90D-BF3F-4B29-BD15-59A057781834}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -750,87 +750,72 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -839,6 +824,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
@@ -852,6 +849,24 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
@@ -864,6 +879,24 @@
     <xf numFmtId="0" fontId="8" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
@@ -873,47 +906,14 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="20% - تمييز1" xfId="2" builtinId="30"/>
-    <cellStyle name="20% - تمييز2" xfId="3" builtinId="34"/>
-    <cellStyle name="20% - تمييز3" xfId="4" builtinId="38"/>
-    <cellStyle name="20% - تمييز5" xfId="5" builtinId="46"/>
-    <cellStyle name="عادي" xfId="0" builtinId="0"/>
-    <cellStyle name="عنوان 3" xfId="1" builtinId="18"/>
+    <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
+    <cellStyle name="20% - Accent2" xfId="3" builtinId="34"/>
+    <cellStyle name="20% - Accent3" xfId="4" builtinId="38"/>
+    <cellStyle name="20% - Accent5" xfId="5" builtinId="46"/>
+    <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -940,7 +940,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="نسق Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1261,8 +1261,8 @@
   </sheetPr>
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1279,502 +1279,510 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="40"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="43"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="37"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="30" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="30" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="30" t="s">
+      <c r="E4" s="44"/>
+      <c r="F4" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="30" t="s">
+      <c r="G4" s="44"/>
+      <c r="H4" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="37"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="37"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="28"/>
     </row>
     <row r="6" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="26"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="26"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="26"/>
+      <c r="G6" s="44"/>
       <c r="H6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="37"/>
+      <c r="I6" s="28"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="26"/>
+      <c r="C7" s="44"/>
       <c r="D7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="26"/>
+      <c r="E7" s="44"/>
       <c r="F7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="26"/>
+      <c r="G7" s="44"/>
       <c r="H7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="37"/>
+      <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="26"/>
+      <c r="C8" s="44"/>
       <c r="D8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="26"/>
+      <c r="E8" s="44"/>
       <c r="F8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="26"/>
+      <c r="G8" s="44"/>
       <c r="H8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="37"/>
+      <c r="I8" s="28"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="26"/>
+      <c r="C9" s="44"/>
       <c r="D9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="26"/>
+      <c r="E9" s="44"/>
       <c r="F9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="26"/>
+      <c r="G9" s="44"/>
       <c r="H9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="37"/>
+      <c r="I9" s="28"/>
     </row>
     <row r="10" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
-      <c r="B10" s="69" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="53" t="s">
+      <c r="C10" s="44"/>
+      <c r="D10" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="44" t="s">
+      <c r="E10" s="44"/>
+      <c r="F10" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="57" t="s">
+      <c r="G10" s="44"/>
+      <c r="H10" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="37"/>
+      <c r="I10" s="28"/>
     </row>
     <row r="11" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="37"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="28"/>
     </row>
     <row r="12" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="37"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="28"/>
     </row>
     <row r="13" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="37"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="28"/>
     </row>
     <row r="14" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="35"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="37"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:9" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="35"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="26"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="26"/>
+      <c r="E15" s="44"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="26"/>
+      <c r="G15" s="44"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="37"/>
+      <c r="I15" s="28"/>
     </row>
     <row r="16" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="26"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="26"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="44"/>
       <c r="H16" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="37"/>
+      <c r="I16" s="28"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="26"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="26"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="44"/>
       <c r="H17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="37"/>
+      <c r="I17" s="28"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="26"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="26"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="44"/>
       <c r="H18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="37"/>
+      <c r="I18" s="28"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="26"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="26"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="44"/>
       <c r="H19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="37"/>
+      <c r="I19" s="28"/>
     </row>
     <row r="20" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="64" t="s">
+      <c r="A20" s="26"/>
+      <c r="B20" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="61" t="s">
+      <c r="C20" s="44"/>
+      <c r="D20" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="23" t="s">
+      <c r="E20" s="44"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="I20" s="37"/>
+      <c r="I20" s="28"/>
     </row>
     <row r="21" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="37"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="28"/>
     </row>
     <row r="22" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="37"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="28"/>
     </row>
     <row r="23" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="37"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="28"/>
     </row>
     <row r="24" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="35"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="37"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="28"/>
     </row>
     <row r="25" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="35"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="26"/>
+      <c r="C25" s="44"/>
       <c r="D25" s="12"/>
-      <c r="E25" s="26"/>
+      <c r="E25" s="44"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="26"/>
+      <c r="G25" s="44"/>
       <c r="H25" s="12"/>
-      <c r="I25" s="37"/>
+      <c r="I25" s="28"/>
     </row>
     <row r="26" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="26"/>
+      <c r="C26" s="44"/>
       <c r="D26" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="26"/>
+      <c r="E26" s="44"/>
       <c r="F26" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="26"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="37"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="28"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="26"/>
+      <c r="C27" s="44"/>
       <c r="D27" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="26"/>
+      <c r="E27" s="44"/>
       <c r="F27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="26"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="37"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="28"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="26"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="26"/>
+      <c r="E28" s="44"/>
       <c r="F28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="26"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="37"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="28"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="26"/>
+      <c r="C29" s="44"/>
       <c r="D29" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="26"/>
+      <c r="E29" s="44"/>
       <c r="F29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="26"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="37"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="28"/>
     </row>
     <row r="30" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="67" t="s">
+      <c r="A30" s="26"/>
+      <c r="B30" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="72" t="s">
+      <c r="C30" s="44"/>
+      <c r="D30" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="26"/>
-      <c r="F30" s="68" t="s">
+      <c r="E30" s="44"/>
+      <c r="F30" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G30" s="26"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="37"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="28"/>
     </row>
     <row r="31" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="37"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="28"/>
     </row>
     <row r="32" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="37"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="28"/>
     </row>
     <row r="33" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="37"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="28"/>
     </row>
     <row r="34" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="35"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="37"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="28"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="34"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="H10:H14"/>
+    <mergeCell ref="H20:H24"/>
+    <mergeCell ref="C4:C34"/>
+    <mergeCell ref="H26:H34"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="D20:D24"/>
     <mergeCell ref="A35:I35"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="I4:I34"/>
@@ -1791,14 +1799,6 @@
     <mergeCell ref="D10:D14"/>
     <mergeCell ref="D30:D34"/>
     <mergeCell ref="B10:B14"/>
-    <mergeCell ref="H10:H14"/>
-    <mergeCell ref="H20:H24"/>
-    <mergeCell ref="C4:C34"/>
-    <mergeCell ref="H26:H34"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="D20:D24"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
